--- a/bank statement generator/bank_statements/statement_49.xlsx
+++ b/bank statement generator/bank_statements/statement_49.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 21.08.2024</t>
+          <t>KONTOSTAND AM 15.09.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,132 +759,132 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>24.08.</t>
+          <t>16.09.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>25.08.</t>
+          <t>17.09.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU YORYTC</t>
+          <t>KARTENZAHLUNG JET TANKSTELLE</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>165,29-</t>
+          <t>89,28-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>25.08.</t>
+          <t>20.09.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>26.08.</t>
+          <t>21.09.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 69150050</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>41,53-</t>
+          <t>24,83-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>27.08.</t>
+          <t>22.09.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>28.08.</t>
+          <t>23.09.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL GHPSIH</t>
+          <t>KARTENZAHLUNG ARAL TANKSTELLE</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>50,45-</t>
+          <t>53,13-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>29.08.</t>
+          <t>24.09.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>30.08.</t>
+          <t>25.09.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Lichtenfels</t>
+          <t>BURGER KING Pößneck</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>12,38-</t>
+          <t>42,52-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>30.08.</t>
+          <t>27.09.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>31.08.</t>
+          <t>28.09.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>EBAY MKTPLC EU WWHGQK</t>
+          <t>PAYPAL OUZMCP</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>148,83-</t>
+          <t>40,28-</t>
         </is>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>03.09.</t>
+          <t>28.09.</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
         <is>
-          <t>04.09.</t>
+          <t>29.09.</t>
         </is>
       </c>
       <c r="D11" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-77314451</t>
+          <t>KARTENZ./28.09 LIDL RO</t>
         </is>
       </c>
       <c r="E11" s="17" t="inlineStr">
         <is>
-          <t>55,85-</t>
+          <t>125,63-</t>
         </is>
       </c>
     </row>
@@ -893,12 +893,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.09.2024</t>
+          <t>KONTOSTAND AM 01.10.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>474,33-</t>
+          <t>375,67-</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 15.09.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 08.10.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
